--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,96 +40,96 @@
     <t>name</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -139,229 +139,253 @@
     <t>buying</t>
   </si>
   <si>
+    <t>or</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
+    <t>with</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>on</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>in</t>
@@ -722,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -791,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>0.92</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,16 +836,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -833,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -841,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -891,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9210526315789473</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,16 +936,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -933,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -941,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8695652173913043</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -959,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9162303664921466</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -991,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8595890410958904</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.890625</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1033,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,10 +1068,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1059,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.9112271540469974</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1083,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1091,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8275862068965517</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1141,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8076923076923077</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1159,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.8983050847457628</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1183,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1191,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1209,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1233,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1241,37 +1265,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.8867924528301887</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1283,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1291,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.775</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,16 +1336,16 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.8732394366197183</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1333,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1341,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7692307692307693</v>
+        <v>0.687984496124031</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1359,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.8636363636363636</v>
+        <v>0.8625</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1383,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1391,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7419354838709677</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1409,31 +1433,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15">
-        <v>0.8625</v>
-      </c>
-      <c r="L15">
-        <v>138</v>
-      </c>
-      <c r="M15">
-        <v>138</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1441,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7333333333333333</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1459,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.8448275862068966</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1483,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1491,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6705426356589147</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C17">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1509,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.84375</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1533,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1541,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6613756613756614</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1559,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1583,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1591,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6101694915254238</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1609,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K19">
-        <v>0.8297872340425532</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1633,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1641,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5973154362416108</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C20">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1659,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1683,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1691,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5882352941176471</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1709,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K21">
-        <v>0.8095238095238095</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1733,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1741,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5675675675675675</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1759,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K22">
-        <v>0.8055555555555556</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1783,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1791,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5444444444444444</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C23">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1809,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K23">
-        <v>0.7857142857142857</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1841,13 +1865,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.509090909090909</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1859,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1883,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1891,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1909,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1933,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1941,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4933333333333333</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1959,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K26">
-        <v>0.7692307692307693</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1991,37 +2015,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4727272727272727</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>29</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2033,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2041,13 +2065,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4666666666666667</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2059,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K28">
-        <v>0.7450980392156863</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2080,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2091,13 +2115,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3766233766233766</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2112,16 +2136,16 @@
         <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K29">
-        <v>0.7407407407407407</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2133,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2141,31 +2165,31 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3333333333333333</v>
+        <v>0.425</v>
       </c>
       <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>46</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30">
-        <v>84</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>168</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K30">
-        <v>0.74</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L30">
         <v>37</v>
@@ -2183,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2191,13 +2215,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3220338983050847</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2209,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K31">
-        <v>0.7382352941176471</v>
+        <v>0.725</v>
       </c>
       <c r="L31">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2233,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2241,13 +2265,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2259,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K32">
-        <v>0.725</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2283,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2291,13 +2315,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2600536193029491</v>
+        <v>0.2680965147453083</v>
       </c>
       <c r="C33">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2309,31 +2333,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K33">
-        <v>0.723404255319149</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L33">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="M33">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2341,13 +2365,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2359,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K34">
-        <v>0.7074829931972789</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L34">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2380,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2391,37 +2415,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.09215017064846416</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K35">
-        <v>0.698744769874477</v>
+        <v>0.68</v>
       </c>
       <c r="L35">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2433,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2441,37 +2465,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.03626943005181347</v>
+        <v>0.05191256830601093</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E36">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
-        <v>0.9299999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1116</v>
+        <v>347</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>0.6857142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2483,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2491,37 +2515,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.02457161332040091</v>
+        <v>0.0457685664939551</v>
       </c>
       <c r="C37">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E37">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="F37">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>3017</v>
+        <v>1105</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K37">
-        <v>0.676923076923077</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2533,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2541,37 +2565,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01946677951756242</v>
+        <v>0.03351718285956724</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D38">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="E38">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="F38">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2317</v>
+        <v>2278</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K38">
-        <v>0.651685393258427</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L38">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2583,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2591,37 +2615,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01684397163120567</v>
+        <v>0.0304305600517967</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="E39">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="F39">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1109</v>
+        <v>2995</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K39">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2633,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2641,37 +2665,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01642421398404505</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="F40">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2096</v>
+        <v>681</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K40">
-        <v>0.6285714285714286</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2683,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2691,49 +2715,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0135312090790048</v>
+        <v>0.02458628841607565</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D41">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E41">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="F41">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2260</v>
+        <v>2063</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K41">
-        <v>0.6222222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M41">
         <v>28</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2741,37 +2765,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.008809710258418167</v>
+        <v>0.02209302325581395</v>
       </c>
       <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>0.54</v>
+      </c>
+      <c r="F42">
+        <v>0.46</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>841</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L42">
         <v>45</v>
       </c>
-      <c r="D42">
-        <v>102</v>
-      </c>
-      <c r="E42">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F42">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>5063</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
       <c r="M42">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2783,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2791,49 +2815,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.008415147265077139</v>
+        <v>0.01755786113328013</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E43">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="F43">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4242</v>
+        <v>1231</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K43">
-        <v>0.5121951219512195</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2841,37 +2865,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00835421888053467</v>
+        <v>0.01375515818431912</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D44">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="E44">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="F44">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2374</v>
+        <v>5019</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K44">
-        <v>0.4794520547945205</v>
+        <v>0.578125</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2883,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2891,37 +2915,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.008316430020283976</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="E45">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="F45">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>4889</v>
+        <v>2250</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K45">
-        <v>0.4426229508196721</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2933,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2941,37 +2965,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.007701193685021178</v>
+        <v>0.01266416510318949</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E46">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="F46">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2577</v>
+        <v>4210</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K46">
-        <v>0.4375</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2983,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2991,37 +3015,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.006070287539936103</v>
+        <v>0.01206050695012265</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D47">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="E47">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="F47">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>3111</v>
+        <v>4833</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K47">
-        <v>0.4358974358974359</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3033,21 +3057,45 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.01138760016870519</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>101</v>
+      </c>
+      <c r="E48">
+        <v>0.73</v>
+      </c>
+      <c r="F48">
+        <v>0.27</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2344</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K48">
-        <v>0.4035087719298245</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3062,12 +3110,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="10:17">
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.01010886469673406</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>127</v>
+      </c>
+      <c r="E49">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>0.2</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2546</v>
+      </c>
       <c r="J49" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K49">
-        <v>0.1935483870967742</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L49">
         <v>24</v>
@@ -3085,579 +3157,863 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.008959999999999999</v>
+      </c>
+      <c r="C50">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>104</v>
+      </c>
+      <c r="E50">
+        <v>0.73</v>
+      </c>
+      <c r="F50">
+        <v>0.27</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>3097</v>
+      </c>
       <c r="J50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50">
+        <v>0.375</v>
+      </c>
+      <c r="L50">
+        <v>27</v>
+      </c>
+      <c r="M50">
+        <v>27</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="J51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51">
+        <v>0.1774193548387097</v>
+      </c>
+      <c r="L51">
+        <v>22</v>
+      </c>
+      <c r="M51">
+        <v>22</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="J52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52">
+        <v>0.172972972972973</v>
+      </c>
+      <c r="L52">
+        <v>32</v>
+      </c>
+      <c r="M52">
+        <v>32</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K53">
+        <v>0.1165644171779141</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54">
+        <v>0.08441558441558442</v>
+      </c>
+      <c r="L54">
+        <v>26</v>
+      </c>
+      <c r="M54">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55">
+        <v>0.07932692307692307</v>
+      </c>
+      <c r="L55">
+        <v>33</v>
+      </c>
+      <c r="M55">
+        <v>33</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K56">
+        <v>0.07471264367816093</v>
+      </c>
+      <c r="L56">
+        <v>26</v>
+      </c>
+      <c r="M56">
+        <v>27</v>
+      </c>
+      <c r="N56">
+        <v>0.96</v>
+      </c>
+      <c r="O56">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57">
+        <v>0.07447698744769875</v>
+      </c>
+      <c r="L57">
+        <v>89</v>
+      </c>
+      <c r="M57">
+        <v>94</v>
+      </c>
+      <c r="N57">
+        <v>0.95</v>
+      </c>
+      <c r="O57">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K58">
+        <v>0.07339449541284404</v>
+      </c>
+      <c r="L58">
+        <v>40</v>
+      </c>
+      <c r="M58">
+        <v>42</v>
+      </c>
+      <c r="N58">
+        <v>0.95</v>
+      </c>
+      <c r="O58">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59">
+        <v>0.0726643598615917</v>
+      </c>
+      <c r="L59">
+        <v>21</v>
+      </c>
+      <c r="M59">
+        <v>21</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60">
+        <v>0.05528846153846154</v>
+      </c>
+      <c r="L60">
+        <v>23</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>0.92</v>
+      </c>
+      <c r="O60">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K61">
+        <v>0.03815640347563279</v>
+      </c>
+      <c r="L61">
         <v>101</v>
       </c>
-      <c r="K50">
-        <v>0.1759259259259259</v>
-      </c>
-      <c r="L50">
-        <v>19</v>
-      </c>
-      <c r="M50">
-        <v>20</v>
-      </c>
-      <c r="N50">
-        <v>0.95</v>
-      </c>
-      <c r="O50">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K51">
-        <v>0.1678321678321678</v>
-      </c>
-      <c r="L51">
-        <v>24</v>
-      </c>
-      <c r="M51">
-        <v>24</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52">
-        <v>0.1351351351351351</v>
-      </c>
-      <c r="L52">
-        <v>25</v>
-      </c>
-      <c r="M52">
-        <v>25</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K53">
-        <v>0.09446254071661238</v>
-      </c>
-      <c r="L53">
+      <c r="M61">
+        <v>127</v>
+      </c>
+      <c r="N61">
+        <v>0.8</v>
+      </c>
+      <c r="O61">
+        <v>0.2</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K62">
+        <v>0.03616352201257862</v>
+      </c>
+      <c r="L62">
+        <v>23</v>
+      </c>
+      <c r="M62">
+        <v>37</v>
+      </c>
+      <c r="N62">
+        <v>0.62</v>
+      </c>
+      <c r="O62">
+        <v>0.38</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63">
+        <v>0.03229398663697105</v>
+      </c>
+      <c r="L63">
         <v>29</v>
       </c>
-      <c r="M53">
-        <v>30</v>
-      </c>
-      <c r="N53">
-        <v>0.97</v>
-      </c>
-      <c r="O53">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K54">
-        <v>0.06920415224913495</v>
-      </c>
-      <c r="L54">
-        <v>20</v>
-      </c>
-      <c r="M54">
-        <v>20</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K55">
-        <v>0.06581352833638025</v>
-      </c>
-      <c r="L55">
-        <v>36</v>
-      </c>
-      <c r="M55">
-        <v>36</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K56">
-        <v>0.06009615384615385</v>
-      </c>
-      <c r="L56">
-        <v>25</v>
-      </c>
-      <c r="M56">
-        <v>25</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57">
-        <v>0.05280804694048617</v>
-      </c>
-      <c r="L57">
-        <v>63</v>
-      </c>
-      <c r="M57">
-        <v>70</v>
-      </c>
-      <c r="N57">
-        <v>0.9</v>
-      </c>
-      <c r="O57">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58">
-        <v>0.0405616224648986</v>
-      </c>
-      <c r="L58">
-        <v>26</v>
-      </c>
-      <c r="M58">
-        <v>35</v>
-      </c>
-      <c r="N58">
-        <v>0.74</v>
-      </c>
-      <c r="O58">
-        <v>0.26</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K59">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="L59">
-        <v>41</v>
-      </c>
-      <c r="M59">
-        <v>59</v>
-      </c>
-      <c r="N59">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O59">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K60">
-        <v>0.03048780487804878</v>
-      </c>
-      <c r="L60">
-        <v>30</v>
-      </c>
-      <c r="M60">
-        <v>35</v>
-      </c>
-      <c r="N60">
-        <v>0.86</v>
-      </c>
-      <c r="O60">
-        <v>0.14</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K61">
-        <v>0.02893081761006289</v>
-      </c>
-      <c r="L61">
-        <v>69</v>
-      </c>
-      <c r="M61">
-        <v>78</v>
-      </c>
-      <c r="N61">
-        <v>0.88</v>
-      </c>
-      <c r="O61">
-        <v>0.12</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K62">
-        <v>0.0286468149264983</v>
-      </c>
-      <c r="L62">
-        <v>76</v>
-      </c>
-      <c r="M62">
-        <v>96</v>
-      </c>
-      <c r="N62">
-        <v>0.79</v>
-      </c>
-      <c r="O62">
-        <v>0.21</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K63">
-        <v>0.02763819095477387</v>
-      </c>
-      <c r="L63">
-        <v>22</v>
-      </c>
       <c r="M63">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N63">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="O63">
-        <v>0.1899999999999999</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>0.02337334175615919</v>
+        <v>0.03060380479735319</v>
       </c>
       <c r="L64">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="M64">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="N64">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="O64">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1546</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="K65">
-        <v>0.02231301068510371</v>
+        <v>0.02885821831869511</v>
       </c>
       <c r="L65">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="N65">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="O65">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>3111</v>
+        <v>774</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>0.02103092783505155</v>
+        <v>0.02841357537490134</v>
       </c>
       <c r="L66">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N66">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="O66">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2374</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K67">
-        <v>0.01830443159922929</v>
+        <v>0.02645947081058379</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="N67">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="O67">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1019</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>0.01331987891019173</v>
+        <v>0.02549246813441483</v>
       </c>
       <c r="L68">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="N68">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="O68">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>4889</v>
+        <v>841</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K69">
-        <v>0.01164958061509786</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M69">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="N69">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="O69">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4242</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="K70">
-        <v>0.0111328125</v>
+        <v>0.02249718785151856</v>
       </c>
       <c r="L70">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="N70">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="O70">
-        <v>0.4399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>5063</v>
+        <v>869</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K71">
-        <v>0.009319664492078284</v>
+        <v>0.02138492871690428</v>
       </c>
       <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="M71">
+        <v>28</v>
+      </c>
+      <c r="N71">
+        <v>0.75</v>
+      </c>
+      <c r="O71">
+        <v>0.25</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K72">
+        <v>0.02119460500963391</v>
+      </c>
+      <c r="L72">
+        <v>22</v>
+      </c>
+      <c r="M72">
+        <v>24</v>
+      </c>
+      <c r="N72">
+        <v>0.92</v>
+      </c>
+      <c r="O72">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73">
+        <v>0.02106542434676929</v>
+      </c>
+      <c r="L73">
+        <v>104</v>
+      </c>
+      <c r="M73">
+        <v>163</v>
+      </c>
+      <c r="N73">
+        <v>0.64</v>
+      </c>
+      <c r="O73">
+        <v>0.36</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K74">
+        <v>0.02089930335655478</v>
+      </c>
+      <c r="L74">
+        <v>33</v>
+      </c>
+      <c r="M74">
+        <v>48</v>
+      </c>
+      <c r="N74">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K75">
+        <v>0.017825311942959</v>
+      </c>
+      <c r="L75">
         <v>20</v>
       </c>
-      <c r="M71">
-        <v>32</v>
-      </c>
-      <c r="N71">
-        <v>0.62</v>
-      </c>
-      <c r="O71">
-        <v>0.38</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>2126</v>
+      <c r="M75">
+        <v>38</v>
+      </c>
+      <c r="N75">
+        <v>0.53</v>
+      </c>
+      <c r="O75">
+        <v>0.47</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K76">
+        <v>0.01724941724941725</v>
+      </c>
+      <c r="L76">
+        <v>37</v>
+      </c>
+      <c r="M76">
+        <v>50</v>
+      </c>
+      <c r="N76">
+        <v>0.74</v>
+      </c>
+      <c r="O76">
+        <v>0.26</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77">
+        <v>0.01497426298549368</v>
+      </c>
+      <c r="L77">
+        <v>64</v>
+      </c>
+      <c r="M77">
+        <v>118</v>
+      </c>
+      <c r="N77">
+        <v>0.54</v>
+      </c>
+      <c r="O77">
+        <v>0.46</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78">
+        <v>0.01491658488714426</v>
+      </c>
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78">
+        <v>146</v>
+      </c>
+      <c r="N78">
+        <v>0.52</v>
+      </c>
+      <c r="O78">
+        <v>0.48</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79">
+        <v>0.01339072214251554</v>
+      </c>
+      <c r="L79">
+        <v>28</v>
+      </c>
+      <c r="M79">
+        <v>80</v>
+      </c>
+      <c r="N79">
+        <v>0.35</v>
+      </c>
+      <c r="O79">
+        <v>0.65</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K80">
+        <v>0.01272487933304081</v>
+      </c>
+      <c r="L80">
+        <v>29</v>
+      </c>
+      <c r="M80">
+        <v>59</v>
+      </c>
+      <c r="N80">
+        <v>0.49</v>
+      </c>
+      <c r="O80">
+        <v>0.51</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81">
+        <v>0.009565217391304347</v>
+      </c>
+      <c r="L81">
+        <v>22</v>
+      </c>
+      <c r="M81">
+        <v>101</v>
+      </c>
+      <c r="N81">
+        <v>0.22</v>
+      </c>
+      <c r="O81">
+        <v>0.78</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2278</v>
       </c>
     </row>
   </sheetData>
